--- a/diagramma_gantt (1).xlsx
+++ b/diagramma_gantt (1).xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21012" windowHeight="9168"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="stazione_metereologica - GanttC" sheetId="1" r:id="rId5"/>
+    <sheet name="stazione_metereologica - GanttC" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -25,56 +33,62 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>PROGETTAZIONE</t>
+    <t>PROGETTAZIONE (Crepaldi e Malachin)</t>
   </si>
   <si>
-    <t>SETUP PROGETTO</t>
+    <t>SCRITTURA CODICE (Crepaldi)</t>
   </si>
   <si>
-    <t>SCRITTURA CODICE</t>
+    <t>SETUP PROGETTO (Malachin)</t>
   </si>
   <si>
-    <t>GESTIONE ERRORE</t>
+    <t>GESTIONE ERRORE (Crepaldi)</t>
   </si>
   <si>
-    <t>TEST E DEBUG</t>
+    <t>TEST E DEBUG (Malachin)</t>
   </si>
   <si>
-    <t>CORREZIONE FINALI</t>
+    <t>CORREZIONE FINALI (Crepaldi)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="mmmm yyyy"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="mmmm\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="6">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <color rgb="FF12355B"/>
-      <name val="Calibri"/>
-    </font>
-    <font/>
-    <font>
+      <sz val="11"/>
       <color rgb="FF12355B"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF12355B"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -84,7 +98,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -142,95 +156,110 @@
     </fill>
   </fills>
   <borders count="7">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF12355B"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF12355B"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="10" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="6" fillId="4" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -238,7 +267,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -428,49 +457,49 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4.0" ySplit="2.0" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E1" sqref="E1" pane="topRight"/>
-      <selection activeCell="A3" sqref="A3" pane="bottomLeft"/>
-      <selection activeCell="E3" sqref="E3" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.0"/>
-    <col customWidth="1" min="2" max="2" width="10.0"/>
-    <col customWidth="1" min="3" max="4" width="12.0"/>
-    <col customWidth="1" min="5" max="14" width="3.43"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="4" width="12" customWidth="1"/>
+    <col min="5" max="14" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" ht="14.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="2">
-        <v>46037.0</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="4"/>
+      <c r="E1" s="20">
+        <v>46037</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="22"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" ht="14.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,183 +512,183 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5">
-        <v>22.0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>23.0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>24.0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>26.0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>27.0</v>
-      </c>
-      <c r="K2" s="5">
-        <v>28.0</v>
-      </c>
-      <c r="L2" s="5">
-        <v>29.0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>30.0</v>
-      </c>
-      <c r="N2" s="5">
-        <v>31.0</v>
+      <c r="E2" s="2">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2">
+        <v>31</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:14" ht="14.4">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>46044.0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>46044.0</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="G3" s="9"/>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>46044</v>
+      </c>
+      <c r="D3" s="4">
+        <v>46044</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="G3" s="6"/>
     </row>
-    <row r="4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+    <row r="4" spans="1:14" ht="14.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:14" ht="14.4">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>46044</v>
+      </c>
+      <c r="D5" s="4">
+        <v>46045</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" ht="14.4">
+      <c r="A6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.4">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>46044.0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>46045.0</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="9"/>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>46045</v>
+      </c>
+      <c r="D7" s="4">
+        <v>46048</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="6"/>
     </row>
-    <row r="6">
-      <c r="A6" s="12"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="10"/>
+    <row r="8" spans="1:14" ht="14.4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>46045.0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>46048.0</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="9"/>
+    <row r="9" spans="1:14" ht="14.4">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>46048</v>
+      </c>
+      <c r="D9" s="4">
+        <v>46049</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
-    <row r="8">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+    <row r="10" spans="1:14" ht="14.4">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
     </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="C9" s="7">
-        <v>46048.0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>46049.0</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+    <row r="11" spans="1:14" ht="14.4">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>46049</v>
+      </c>
+      <c r="D11" s="4">
+        <v>46050</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="6"/>
     </row>
-    <row r="10">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+    <row r="12" spans="1:14" ht="14.4">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
     </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C11" s="7">
-        <v>46049.0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>46050.0</v>
-      </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="9"/>
+    <row r="13" spans="1:14" ht="14.4">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
     </row>
-    <row r="12">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:14" ht="14.4">
+      <c r="A14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="C14" s="19">
-        <v>46051.0</v>
-      </c>
-      <c r="D14" s="19">
-        <v>46051.0</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="20"/>
+      <c r="B14" s="15">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16">
+        <v>46051</v>
+      </c>
+      <c r="D14" s="16">
+        <v>46051</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="17"/>
     </row>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -1645,9 +1674,7 @@
   <mergeCells count="1">
     <mergeCell ref="E1:N1"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>